--- a/Hybrid_Framework/FileOutput/Hybrid_Result.xlsx
+++ b/Hybrid_Framework/FileOutput/Hybrid_Result.xlsx
@@ -1769,7 +1769,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <b val="true"/>
     </font>
     <font>
@@ -4444,7 +4444,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s" s="217">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
